--- a/Klinische_Aspekte/raw_data/Klinische_Aspekte_2021-04-06.xlsx
+++ b/Klinische_Aspekte/raw_data/Klinische_Aspekte_2021-04-06.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\3.7.Lageberichte\2021-03-30\Webmaster_Tabellen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB86D14-DF6A-4948-B9DA-DFA5950DEC03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1151A2C-946E-4FDA-8B34-C4568813227A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{7A96F809-61A3-46BE-921C-258450650152}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{DB775562-523C-43F7-B3D3-B72E2874F045}"/>
   </bookViews>
   <sheets>
-    <sheet name="Klinische Aspekte" sheetId="1" r:id="rId1"/>
+    <sheet name="Klinischer Aspekte" sheetId="1" r:id="rId1"/>
     <sheet name="Fälle_Hospitalisierung_Alter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Meldejahr</t>
   </si>
@@ -67,6 +62,108 @@
     <t>Anteil Verstorben</t>
   </si>
   <si>
+    <t>Die dem RKI übermittelte COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 12/2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Meldewoche</t>
+  </si>
+  <si>
     <t>0 - 4 Jährige</t>
   </si>
   <si>
@@ -83,105 +180,6 @@
   </si>
   <si>
     <t>80+ Jährige</t>
-  </si>
-  <si>
-    <t>Meldewoche</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>Die dem RKI übermittelte COVID-19-Fälle nach Meldewoche und  Geschlecht sowie Anteile mit für COVID-19 relevanten Symptomen, Anteile Hospitalisierter und Verstorbener für die Meldewochen KW 10 – 53/2020 und KW 01 - 12/2021</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
 </sst>
 </file>
@@ -361,7 +359,9 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -675,18 +675,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B954E3B8-F82B-4D64-BB14-6BD6AE52A778}">
-  <dimension ref="A1:M58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED98BD9-4AB5-4844-ABD1-68F2C3D62B46}">
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:M58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -738,16 +738,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="5">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D3" s="5">
         <v>43</v>
       </c>
       <c r="E3" s="6">
-        <v>0.53072625698324027</v>
+        <v>0.52954292084726873</v>
       </c>
       <c r="F3" s="6">
-        <v>0.46927374301675978</v>
+        <v>0.47045707915273133</v>
       </c>
       <c r="G3" s="7">
         <v>836</v>
@@ -756,19 +756,19 @@
         <v>8.3732057416267949E-2</v>
       </c>
       <c r="I3" s="5">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="J3" s="9">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K3" s="6">
-        <v>0.20074349442379183</v>
+        <v>0.20395550061804696</v>
       </c>
       <c r="L3" s="9">
         <v>12</v>
       </c>
       <c r="M3" s="10">
-        <v>1.3407821219999999E-2</v>
+        <v>1.337792642E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -779,37 +779,37 @@
         <v>11</v>
       </c>
       <c r="C4" s="12">
-        <v>6431</v>
+        <v>6434</v>
       </c>
       <c r="D4" s="13">
         <v>45</v>
       </c>
       <c r="E4" s="14">
-        <v>0.56276248250116656</v>
+        <v>0.56281094527363185</v>
       </c>
       <c r="F4" s="14">
-        <v>0.43723751749883338</v>
+        <v>0.43718905472636815</v>
       </c>
       <c r="G4" s="12">
-        <v>5771</v>
+        <v>5770</v>
       </c>
       <c r="H4" s="15">
-        <v>5.3023739386588116E-2</v>
+        <v>5.3206239168110916E-2</v>
       </c>
       <c r="I4" s="12">
-        <v>5631</v>
+        <v>5636</v>
       </c>
       <c r="J4" s="13">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K4" s="14">
-        <v>9.394423725803587E-2</v>
+        <v>9.4570617459190917E-2</v>
       </c>
       <c r="L4" s="13">
         <v>85</v>
       </c>
       <c r="M4" s="16">
-        <v>1.321722904E-2</v>
+        <v>1.3211066210000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -820,37 +820,37 @@
         <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>22440</v>
+        <v>22447</v>
       </c>
       <c r="D5" s="5">
         <v>45</v>
       </c>
       <c r="E5" s="6">
-        <v>0.54993757802746568</v>
+        <v>0.54998885669712505</v>
       </c>
       <c r="F5" s="6">
-        <v>0.45006242197253432</v>
+        <v>0.45001114330287495</v>
       </c>
       <c r="G5" s="7">
-        <v>20197</v>
+        <v>20191</v>
       </c>
       <c r="H5" s="8">
-        <v>3.8966183096499483E-2</v>
+        <v>3.8928235352384724E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>19396</v>
+        <v>19407</v>
       </c>
       <c r="J5" s="7">
-        <v>2218</v>
+        <v>2232</v>
       </c>
       <c r="K5" s="6">
-        <v>0.11435347494328728</v>
+        <v>0.1150100479208533</v>
       </c>
       <c r="L5" s="5">
         <v>478</v>
       </c>
       <c r="M5" s="10">
-        <v>2.130124777E-2</v>
+        <v>2.1294605059999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -861,37 +861,37 @@
         <v>13</v>
       </c>
       <c r="C6" s="12">
-        <v>33999</v>
+        <v>33993</v>
       </c>
       <c r="D6" s="13">
         <v>48</v>
       </c>
       <c r="E6" s="14">
-        <v>0.49501133119463164</v>
+        <v>0.49501015631899675</v>
       </c>
       <c r="F6" s="14">
-        <v>0.5049886688053683</v>
+        <v>0.5049898436810033</v>
       </c>
       <c r="G6" s="12">
-        <v>30856</v>
+        <v>30845</v>
       </c>
       <c r="H6" s="15">
-        <v>3.2927145449831476E-2</v>
+        <v>3.2938887988328738E-2</v>
       </c>
       <c r="I6" s="12">
-        <v>29541</v>
+        <v>29538</v>
       </c>
       <c r="J6" s="12">
-        <v>5137</v>
+        <v>5148</v>
       </c>
       <c r="K6" s="14">
-        <v>0.1738939101587624</v>
+        <v>0.17428397318708105</v>
       </c>
       <c r="L6" s="12">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="M6" s="16">
-        <v>4.3118915260000001E-2</v>
+        <v>4.3097108219999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -902,37 +902,37 @@
         <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>36083</v>
+        <v>36080</v>
       </c>
       <c r="D7" s="5">
         <v>51</v>
       </c>
       <c r="E7" s="6">
-        <v>0.45070031895714879</v>
+        <v>0.45065461000776658</v>
       </c>
       <c r="F7" s="6">
-        <v>0.54929968104285121</v>
+        <v>0.54934538999223348</v>
       </c>
       <c r="G7" s="7">
-        <v>32068</v>
+        <v>32056</v>
       </c>
       <c r="H7" s="8">
-        <v>5.5475863789447424E-2</v>
+        <v>5.5496630895932118E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>31637</v>
+        <v>31636</v>
       </c>
       <c r="J7" s="7">
-        <v>6086</v>
+        <v>6094</v>
       </c>
       <c r="K7" s="6">
-        <v>0.19236969371305748</v>
+        <v>0.19262865090403339</v>
       </c>
       <c r="L7" s="7">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="M7" s="10">
-        <v>6.2577945290000006E-2</v>
+        <v>6.2610864739999994E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -943,37 +943,37 @@
         <v>15</v>
       </c>
       <c r="C8" s="12">
-        <v>27181</v>
+        <v>27185</v>
       </c>
       <c r="D8" s="13">
         <v>52</v>
       </c>
       <c r="E8" s="14">
-        <v>0.43494916752615292</v>
+        <v>0.43488509133765468</v>
       </c>
       <c r="F8" s="14">
-        <v>0.56505083247384702</v>
+        <v>0.56511490866234526</v>
       </c>
       <c r="G8" s="12">
-        <v>23607</v>
+        <v>23603</v>
       </c>
       <c r="H8" s="15">
-        <v>8.4593552759774648E-2</v>
+        <v>8.4607888827691394E-2</v>
       </c>
       <c r="I8" s="12">
-        <v>24163</v>
+        <v>24170</v>
       </c>
       <c r="J8" s="12">
-        <v>4726</v>
+        <v>4735</v>
       </c>
       <c r="K8" s="14">
-        <v>0.19558829615527873</v>
+        <v>0.19590401323955317</v>
       </c>
       <c r="L8" s="12">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="M8" s="16">
-        <v>6.9129171109999998E-2</v>
+        <v>6.9155784430000006E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -984,37 +984,37 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>17365</v>
+        <v>17360</v>
       </c>
       <c r="D9" s="5">
         <v>51</v>
       </c>
       <c r="E9" s="6">
-        <v>0.44719243629655253</v>
+        <v>0.44732137708321318</v>
       </c>
       <c r="F9" s="6">
-        <v>0.55280756370344752</v>
+        <v>0.55267862291678682</v>
       </c>
       <c r="G9" s="7">
-        <v>14890</v>
+        <v>14884</v>
       </c>
       <c r="H9" s="8">
-        <v>0.1145063801208865</v>
+        <v>0.11455253963988175</v>
       </c>
       <c r="I9" s="7">
         <v>15541</v>
       </c>
       <c r="J9" s="7">
-        <v>3374</v>
+        <v>3381</v>
       </c>
       <c r="K9" s="6">
-        <v>0.21710314651566823</v>
+        <v>0.21755356798146838</v>
       </c>
       <c r="L9" s="7">
         <v>1217</v>
       </c>
       <c r="M9" s="10">
-        <v>7.0083501290000003E-2</v>
+        <v>7.0103686629999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1025,37 +1025,37 @@
         <v>17</v>
       </c>
       <c r="C10" s="12">
-        <v>12375</v>
+        <v>12379</v>
       </c>
       <c r="D10" s="13">
         <v>50</v>
       </c>
       <c r="E10" s="14">
-        <v>0.44966823110535686</v>
+        <v>0.44968451706843554</v>
       </c>
       <c r="F10" s="14">
-        <v>0.55033176889464319</v>
+        <v>0.55031548293156451</v>
       </c>
       <c r="G10" s="12">
-        <v>10284</v>
+        <v>10282</v>
       </c>
       <c r="H10" s="15">
-        <v>0.13905095293660055</v>
+        <v>0.13907800038902937</v>
       </c>
       <c r="I10" s="12">
-        <v>10993</v>
+        <v>10998</v>
       </c>
       <c r="J10" s="12">
-        <v>2235</v>
+        <v>2241</v>
       </c>
       <c r="K10" s="14">
-        <v>0.20331119803511324</v>
+        <v>0.20376432078559739</v>
       </c>
       <c r="L10" s="13">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M10" s="16">
-        <v>5.8181818179999997E-2</v>
+        <v>5.8243799979999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1066,37 +1066,37 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7444</v>
+        <v>7441</v>
       </c>
       <c r="D11" s="5">
         <v>48</v>
       </c>
       <c r="E11" s="6">
-        <v>0.47761795940314561</v>
+        <v>0.47767616998386231</v>
       </c>
       <c r="F11" s="6">
-        <v>0.52238204059685445</v>
+        <v>0.52232383001613769</v>
       </c>
       <c r="G11" s="7">
-        <v>6259</v>
+        <v>6258</v>
       </c>
       <c r="H11" s="8">
-        <v>0.17558715449752357</v>
+        <v>0.17561521252796419</v>
       </c>
       <c r="I11" s="7">
-        <v>6612</v>
+        <v>6611</v>
       </c>
       <c r="J11" s="7">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="K11" s="6">
-        <v>0.20598911070780399</v>
+        <v>0.20647405838753594</v>
       </c>
       <c r="L11" s="5">
         <v>386</v>
       </c>
       <c r="M11" s="10">
-        <v>5.1853842019999999E-2</v>
+        <v>5.1874748009999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1107,37 +1107,37 @@
         <v>19</v>
       </c>
       <c r="C12" s="12">
-        <v>6239</v>
+        <v>6240</v>
       </c>
       <c r="D12" s="13">
         <v>47</v>
       </c>
       <c r="E12" s="14">
-        <v>0.48002566982191563</v>
+        <v>0.48010907924286172</v>
       </c>
       <c r="F12" s="14">
-        <v>0.51997433017808437</v>
+        <v>0.51989092075713828</v>
       </c>
       <c r="G12" s="12">
-        <v>5248</v>
+        <v>5249</v>
       </c>
       <c r="H12" s="15">
-        <v>0.19645579268292682</v>
+        <v>0.19603734044579921</v>
       </c>
       <c r="I12" s="12">
-        <v>5632</v>
+        <v>5633</v>
       </c>
       <c r="J12" s="12">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="K12" s="14">
-        <v>0.19176136363636365</v>
+        <v>0.19208237173797266</v>
       </c>
       <c r="L12" s="13">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M12" s="16">
-        <v>4.1032216699999999E-2</v>
+        <v>4.118589743E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1148,37 +1148,37 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>4758</v>
+        <v>4768</v>
       </c>
       <c r="D13" s="5">
         <v>45</v>
       </c>
       <c r="E13" s="6">
-        <v>0.49452861952861954</v>
+        <v>0.49475010499790006</v>
       </c>
       <c r="F13" s="6">
-        <v>0.50547138047138052</v>
+        <v>0.50524989500209994</v>
       </c>
       <c r="G13" s="7">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="H13" s="8">
-        <v>0.23096382494308121</v>
+        <v>0.23102226720647773</v>
       </c>
       <c r="I13" s="7">
-        <v>4235</v>
+        <v>4250</v>
       </c>
       <c r="J13" s="5">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="K13" s="6">
-        <v>0.17709563164108619</v>
+        <v>0.18023529411764705</v>
       </c>
       <c r="L13" s="5">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" s="10">
-        <v>3.4258091630000001E-2</v>
+        <v>3.4395973150000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1189,37 +1189,37 @@
         <v>21</v>
       </c>
       <c r="C14" s="12">
-        <v>3621</v>
+        <v>3613</v>
       </c>
       <c r="D14" s="13">
         <v>43</v>
       </c>
       <c r="E14" s="14">
-        <v>0.50277161862527719</v>
+        <v>0.50277623542476402</v>
       </c>
       <c r="F14" s="14">
-        <v>0.49722838137472286</v>
+        <v>0.49722376457523598</v>
       </c>
       <c r="G14" s="12">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="H14" s="15">
-        <v>0.26313932980599647</v>
+        <v>0.26323218066337334</v>
       </c>
       <c r="I14" s="12">
         <v>3122</v>
       </c>
       <c r="J14" s="13">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K14" s="14">
-        <v>0.16463805253042921</v>
+        <v>0.16495836002562461</v>
       </c>
       <c r="L14" s="13">
         <v>113</v>
       </c>
       <c r="M14" s="16">
-        <v>3.1206848929999999E-2</v>
+        <v>3.1275947960000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1230,37 +1230,37 @@
         <v>22</v>
       </c>
       <c r="C15" s="7">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="D15" s="5">
         <v>42</v>
       </c>
       <c r="E15" s="6">
-        <v>0.51581584716567497</v>
+        <v>0.51566416040100249</v>
       </c>
       <c r="F15" s="6">
-        <v>0.48418415283432509</v>
+        <v>0.48433583959899751</v>
       </c>
       <c r="G15" s="7">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="H15" s="8">
-        <v>0.23164507263447193</v>
+        <v>0.23182711198428291</v>
       </c>
       <c r="I15" s="7">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="J15" s="5">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K15" s="6">
-        <v>0.15131816540267246</v>
+        <v>0.15209537572254336</v>
       </c>
       <c r="L15" s="5">
         <v>65</v>
       </c>
       <c r="M15" s="10">
-        <v>2.0280811230000001E-2</v>
+        <v>2.028714107E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1476,16 +1476,16 @@
         <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D21" s="5">
         <v>36</v>
       </c>
       <c r="E21" s="6">
-        <v>0.55963681386710684</v>
+        <v>0.5590421139554087</v>
       </c>
       <c r="F21" s="6">
-        <v>0.4403631861328931</v>
+        <v>0.44095788604459124</v>
       </c>
       <c r="G21" s="7">
         <v>1934</v>
@@ -1494,19 +1494,19 @@
         <v>0.23888314374353672</v>
       </c>
       <c r="I21" s="7">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J21" s="5">
         <v>256</v>
       </c>
       <c r="K21" s="6">
-        <v>0.11662870159453304</v>
+        <v>0.11673506611947104</v>
       </c>
       <c r="L21" s="5">
         <v>25</v>
       </c>
       <c r="M21" s="10">
-        <v>1.029654036E-2</v>
+        <v>1.0300782850000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1517,16 +1517,16 @@
         <v>29</v>
       </c>
       <c r="C22" s="12">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="D22" s="13">
         <v>36</v>
       </c>
       <c r="E22" s="14">
-        <v>0.52493351063829785</v>
+        <v>0.52509139248919912</v>
       </c>
       <c r="F22" s="14">
-        <v>0.47506648936170215</v>
+        <v>0.47490860751080094</v>
       </c>
       <c r="G22" s="12">
         <v>2358</v>
@@ -1535,19 +1535,19 @@
         <v>0.22943172179813401</v>
       </c>
       <c r="I22" s="12">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="J22" s="13">
         <v>318</v>
       </c>
       <c r="K22" s="14">
-        <v>0.12018140589569161</v>
+        <v>0.12013600302228938</v>
       </c>
       <c r="L22" s="13">
         <v>30</v>
       </c>
       <c r="M22" s="16">
-        <v>9.9502487499999997E-3</v>
+        <v>9.9469495999999994E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1558,22 +1558,22 @@
         <v>30</v>
       </c>
       <c r="C23" s="7">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="D23" s="5">
         <v>36</v>
       </c>
       <c r="E23" s="6">
-        <v>0.52334779280428678</v>
+        <v>0.52322613578356303</v>
       </c>
       <c r="F23" s="6">
-        <v>0.47665220719571322</v>
+        <v>0.47677386421643697</v>
       </c>
       <c r="G23" s="7">
         <v>3182</v>
       </c>
       <c r="H23" s="8">
-        <v>0.27435575109993715</v>
+        <v>0.27372721558768071</v>
       </c>
       <c r="I23" s="7">
         <v>3477</v>
@@ -1588,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="M23" s="10">
-        <v>8.3990837299999996E-3</v>
+        <v>8.4012219900000008E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1599,37 +1599,37 @@
         <v>31</v>
       </c>
       <c r="C24" s="12">
-        <v>4817</v>
+        <v>4822</v>
       </c>
       <c r="D24" s="13">
         <v>36</v>
       </c>
       <c r="E24" s="14">
-        <v>0.50270382695507487</v>
+        <v>0.5021815915229586</v>
       </c>
       <c r="F24" s="14">
-        <v>0.49729617304492513</v>
+        <v>0.49781840847704134</v>
       </c>
       <c r="G24" s="12">
-        <v>3705</v>
+        <v>3713</v>
       </c>
       <c r="H24" s="15">
-        <v>0.24561403508771928</v>
+        <v>0.24562348505251819</v>
       </c>
       <c r="I24" s="12">
-        <v>4166</v>
+        <v>4175</v>
       </c>
       <c r="J24" s="13">
         <v>389</v>
       </c>
       <c r="K24" s="14">
-        <v>9.3374939990398462E-2</v>
+        <v>9.3173652694610781E-2</v>
       </c>
       <c r="L24" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M24" s="16">
-        <v>6.4355407900000003E-3</v>
+        <v>6.6362505100000004E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1640,37 +1640,37 @@
         <v>32</v>
       </c>
       <c r="C25" s="7">
-        <v>6056</v>
+        <v>6057</v>
       </c>
       <c r="D25" s="5">
         <v>34</v>
       </c>
       <c r="E25" s="6">
-        <v>0.53671849156467089</v>
+        <v>0.53662973375227385</v>
       </c>
       <c r="F25" s="6">
-        <v>0.46328150843532917</v>
+        <v>0.46337026624772615</v>
       </c>
       <c r="G25" s="7">
-        <v>4549</v>
+        <v>4552</v>
       </c>
       <c r="H25" s="8">
-        <v>0.29984612002637945</v>
+        <v>0.30008787346221444</v>
       </c>
       <c r="I25" s="7">
-        <v>5283</v>
+        <v>5286</v>
       </c>
       <c r="J25" s="5">
         <v>399</v>
       </c>
       <c r="K25" s="6">
-        <v>7.5525269733106193E-2</v>
+        <v>7.5482406356413165E-2</v>
       </c>
       <c r="L25" s="5">
         <v>31</v>
       </c>
       <c r="M25" s="10">
-        <v>5.1188903500000004E-3</v>
+        <v>5.1180452299999998E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1687,25 +1687,25 @@
         <v>32</v>
       </c>
       <c r="E26" s="14">
-        <v>0.5339720156309089</v>
+        <v>0.53409807134753562</v>
       </c>
       <c r="F26" s="14">
-        <v>0.46602798436909115</v>
+        <v>0.46590192865246438</v>
       </c>
       <c r="G26" s="12">
-        <v>5851</v>
+        <v>5854</v>
       </c>
       <c r="H26" s="15">
-        <v>0.33242180823790807</v>
+        <v>0.33259309873590709</v>
       </c>
       <c r="I26" s="12">
-        <v>7007</v>
+        <v>7009</v>
       </c>
       <c r="J26" s="13">
         <v>438</v>
       </c>
       <c r="K26" s="14">
-        <v>6.2508919651776795E-2</v>
+        <v>6.2491082893422742E-2</v>
       </c>
       <c r="L26" s="13">
         <v>30</v>
@@ -1734,19 +1734,19 @@
         <v>0.45270553691275167</v>
       </c>
       <c r="G27" s="7">
-        <v>7202</v>
+        <v>7203</v>
       </c>
       <c r="H27" s="8">
-        <v>0.34559844487642322</v>
+        <v>0.34555046508399279</v>
       </c>
       <c r="I27" s="7">
-        <v>8307</v>
+        <v>8309</v>
       </c>
       <c r="J27" s="5">
         <v>434</v>
       </c>
       <c r="K27" s="6">
-        <v>5.2245094498615627E-2</v>
+        <v>5.2232518955349617E-2</v>
       </c>
       <c r="L27" s="5">
         <v>30</v>
@@ -1763,37 +1763,37 @@
         <v>35</v>
       </c>
       <c r="C28" s="12">
-        <v>8821</v>
+        <v>8820</v>
       </c>
       <c r="D28" s="13">
         <v>32</v>
       </c>
       <c r="E28" s="14">
-        <v>0.53074027603513174</v>
+        <v>0.53102897558749718</v>
       </c>
       <c r="F28" s="14">
-        <v>0.46925972396486826</v>
+        <v>0.46897102441250288</v>
       </c>
       <c r="G28" s="12">
-        <v>6872</v>
+        <v>6874</v>
       </c>
       <c r="H28" s="15">
-        <v>0.30733410942956929</v>
+        <v>0.30724469013674716</v>
       </c>
       <c r="I28" s="12">
-        <v>7425</v>
+        <v>7427</v>
       </c>
       <c r="J28" s="13">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K28" s="14">
-        <v>4.9427609427609424E-2</v>
+        <v>4.9279655311700553E-2</v>
       </c>
       <c r="L28" s="13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M28" s="16">
-        <v>2.1539507899999998E-3</v>
+        <v>2.04081632E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1804,37 +1804,37 @@
         <v>36</v>
       </c>
       <c r="C29" s="7">
-        <v>8619</v>
+        <v>8620</v>
       </c>
       <c r="D29" s="5">
         <v>33</v>
       </c>
       <c r="E29" s="6">
-        <v>0.53650571495218102</v>
+        <v>0.53655976676384842</v>
       </c>
       <c r="F29" s="6">
-        <v>0.46349428504781898</v>
+        <v>0.46344023323615158</v>
       </c>
       <c r="G29" s="7">
-        <v>6656</v>
+        <v>6657</v>
       </c>
       <c r="H29" s="8">
-        <v>0.27178485576923078</v>
+        <v>0.27174402884182064</v>
       </c>
       <c r="I29" s="7">
-        <v>7085</v>
+        <v>7086</v>
       </c>
       <c r="J29" s="5">
         <v>397</v>
       </c>
       <c r="K29" s="6">
-        <v>5.6033874382498239E-2</v>
+        <v>5.6025966694891335E-2</v>
       </c>
       <c r="L29" s="5">
         <v>36</v>
       </c>
       <c r="M29" s="10">
-        <v>4.1768186499999997E-3</v>
+        <v>4.1763340999999999E-3</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1845,16 +1845,16 @@
         <v>37</v>
       </c>
       <c r="C30" s="12">
-        <v>9773</v>
+        <v>9771</v>
       </c>
       <c r="D30" s="13">
         <v>35</v>
       </c>
       <c r="E30" s="14">
-        <v>0.5182556824025506</v>
+        <v>0.51795082810410453</v>
       </c>
       <c r="F30" s="14">
-        <v>0.48174431759744935</v>
+        <v>0.48204917189589547</v>
       </c>
       <c r="G30" s="12">
         <v>7606</v>
@@ -1863,19 +1863,19 @@
         <v>0.20496976071522482</v>
       </c>
       <c r="I30" s="12">
-        <v>8035</v>
+        <v>8037</v>
       </c>
       <c r="J30" s="13">
         <v>464</v>
       </c>
       <c r="K30" s="14">
-        <v>5.7747355320472933E-2</v>
+        <v>5.7732984944631083E-2</v>
       </c>
       <c r="L30" s="13">
         <v>66</v>
       </c>
       <c r="M30" s="16">
-        <v>6.7532998999999998E-3</v>
+        <v>6.7546822199999997E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1886,37 +1886,37 @@
         <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>12294</v>
+        <v>12296</v>
       </c>
       <c r="D31" s="5">
         <v>36</v>
       </c>
       <c r="E31" s="6">
-        <v>0.51214128035320083</v>
+        <v>0.51222104144527103</v>
       </c>
       <c r="F31" s="6">
-        <v>0.48785871964679911</v>
+        <v>0.48777895855472903</v>
       </c>
       <c r="G31" s="7">
-        <v>9765</v>
+        <v>9768</v>
       </c>
       <c r="H31" s="8">
-        <v>0.18689196108550948</v>
+        <v>0.18693693693693694</v>
       </c>
       <c r="I31" s="7">
-        <v>10062</v>
+        <v>10069</v>
       </c>
       <c r="J31" s="5">
         <v>674</v>
       </c>
       <c r="K31" s="6">
-        <v>6.6984694891671637E-2</v>
+        <v>6.6938126924222865E-2</v>
       </c>
       <c r="L31" s="5">
         <v>79</v>
       </c>
       <c r="M31" s="10">
-        <v>6.4258988100000004E-3</v>
+        <v>6.4248536099999996E-3</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1933,25 +1933,25 @@
         <v>37</v>
       </c>
       <c r="E32" s="14">
-        <v>0.51634741133933382</v>
+        <v>0.51642434033387186</v>
       </c>
       <c r="F32" s="14">
-        <v>0.48365258866066618</v>
+        <v>0.48357565966612814</v>
       </c>
       <c r="G32" s="12">
-        <v>10359</v>
+        <v>10361</v>
       </c>
       <c r="H32" s="15">
-        <v>0.18196737136789265</v>
+        <v>0.18193224592220827</v>
       </c>
       <c r="I32" s="12">
-        <v>10849</v>
+        <v>10852</v>
       </c>
       <c r="J32" s="13">
         <v>771</v>
       </c>
       <c r="K32" s="14">
-        <v>7.1066457738040378E-2</v>
+        <v>7.1046811647622554E-2</v>
       </c>
       <c r="L32" s="13">
         <v>107</v>
@@ -1968,37 +1968,37 @@
         <v>40</v>
       </c>
       <c r="C33" s="7">
-        <v>15930</v>
+        <v>15932</v>
       </c>
       <c r="D33" s="5">
         <v>38</v>
       </c>
       <c r="E33" s="6">
-        <v>0.51942572885838423</v>
+        <v>0.51936032235723728</v>
       </c>
       <c r="F33" s="6">
-        <v>0.48057427114161577</v>
+        <v>0.48063967764276272</v>
       </c>
       <c r="G33" s="7">
-        <v>12605</v>
+        <v>12610</v>
       </c>
       <c r="H33" s="8">
-        <v>0.17564458548195161</v>
+        <v>0.17573354480570974</v>
       </c>
       <c r="I33" s="7">
-        <v>13474</v>
+        <v>13480</v>
       </c>
       <c r="J33" s="5">
         <v>873</v>
       </c>
       <c r="K33" s="6">
-        <v>6.4791450200385931E-2</v>
+        <v>6.4762611275964388E-2</v>
       </c>
       <c r="L33" s="5">
         <v>121</v>
       </c>
       <c r="M33" s="10">
-        <v>7.5957313200000001E-3</v>
+        <v>7.5947777999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2009,37 +2009,37 @@
         <v>41</v>
       </c>
       <c r="C34" s="19">
-        <v>26126</v>
+        <v>26128</v>
       </c>
       <c r="D34" s="20">
         <v>39</v>
       </c>
       <c r="E34" s="21">
-        <v>0.51037264694583173</v>
+        <v>0.51044867854947762</v>
       </c>
       <c r="F34" s="21">
-        <v>0.48962735305416827</v>
+        <v>0.48955132145052244</v>
       </c>
       <c r="G34" s="19">
-        <v>20089</v>
+        <v>20102</v>
       </c>
       <c r="H34" s="22">
-        <v>0.16616058539499229</v>
+        <v>0.16635160680529301</v>
       </c>
       <c r="I34" s="19">
-        <v>21537</v>
+        <v>21545</v>
       </c>
       <c r="J34" s="20">
         <v>1586</v>
       </c>
       <c r="K34" s="21">
-        <v>7.364071133398338E-2</v>
+        <v>7.3613367370619631E-2</v>
       </c>
       <c r="L34" s="20">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M34" s="23">
-        <v>9.1479751899999993E-3</v>
+        <v>9.1090018299999995E-3</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2050,37 +2050,37 @@
         <v>42</v>
       </c>
       <c r="C35" s="7">
-        <v>42087</v>
+        <v>42089</v>
       </c>
       <c r="D35" s="5">
         <v>39</v>
       </c>
       <c r="E35" s="6">
-        <v>0.50856242088418635</v>
+        <v>0.50853812901530893</v>
       </c>
       <c r="F35" s="6">
-        <v>0.49143757911581359</v>
+        <v>0.49146187098469107</v>
       </c>
       <c r="G35" s="7">
-        <v>30857</v>
+        <v>30878</v>
       </c>
       <c r="H35" s="8">
-        <v>0.15970444307612536</v>
+        <v>0.15988729840015545</v>
       </c>
       <c r="I35" s="7">
-        <v>33681</v>
+        <v>33704</v>
       </c>
       <c r="J35" s="5">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="K35" s="6">
-        <v>6.9000326593628453E-2</v>
+        <v>6.89829100403513E-2</v>
       </c>
       <c r="L35" s="5">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M35" s="10">
-        <v>1.0810939239999999E-2</v>
+        <v>1.0834184700000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2091,37 +2091,37 @@
         <v>43</v>
       </c>
       <c r="C36" s="12">
-        <v>74828</v>
+        <v>74836</v>
       </c>
       <c r="D36" s="13">
         <v>40</v>
       </c>
       <c r="E36" s="14">
-        <v>0.50165180489901162</v>
+        <v>0.50151057401812693</v>
       </c>
       <c r="F36" s="14">
-        <v>0.49834819510098838</v>
+        <v>0.49848942598187312</v>
       </c>
       <c r="G36" s="12">
-        <v>52372</v>
+        <v>52398</v>
       </c>
       <c r="H36" s="15">
-        <v>0.1548537386389674</v>
+        <v>0.15481506927745334</v>
       </c>
       <c r="I36" s="12">
-        <v>58082</v>
+        <v>58129</v>
       </c>
       <c r="J36" s="13">
-        <v>4096</v>
+        <v>4098</v>
       </c>
       <c r="K36" s="14">
-        <v>7.0520987569298574E-2</v>
+        <v>7.0498374305424147E-2</v>
       </c>
       <c r="L36" s="13">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="M36" s="16">
-        <v>1.3176885649999999E-2</v>
+        <v>1.3202202140000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2132,37 +2132,37 @@
         <v>44</v>
       </c>
       <c r="C37" s="7">
-        <v>111096</v>
+        <v>111099</v>
       </c>
       <c r="D37" s="5">
         <v>41</v>
       </c>
       <c r="E37" s="6">
-        <v>0.49730199543693188</v>
+        <v>0.4972793858021059</v>
       </c>
       <c r="F37" s="6">
-        <v>0.50269800456306812</v>
+        <v>0.50272061419789416</v>
       </c>
       <c r="G37" s="7">
-        <v>75593</v>
+        <v>75603</v>
       </c>
       <c r="H37" s="8">
-        <v>0.15772624449353775</v>
+        <v>0.15775829001494648</v>
       </c>
       <c r="I37" s="7">
-        <v>83889</v>
+        <v>83921</v>
       </c>
       <c r="J37" s="5">
-        <v>5902</v>
+        <v>5904</v>
       </c>
       <c r="K37" s="6">
-        <v>7.0354873702154042E-2</v>
+        <v>7.0351878552448135E-2</v>
       </c>
       <c r="L37" s="5">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="M37" s="10">
-        <v>1.421293295E-2</v>
+        <v>1.423055113E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2173,37 +2173,37 @@
         <v>45</v>
       </c>
       <c r="C38" s="19">
-        <v>125805</v>
+        <v>125818</v>
       </c>
       <c r="D38" s="20">
         <v>41</v>
       </c>
       <c r="E38" s="21">
-        <v>0.4912811886739557</v>
+        <v>0.4912579991510288</v>
       </c>
       <c r="F38" s="21">
-        <v>0.50871881132604424</v>
+        <v>0.50874200084897125</v>
       </c>
       <c r="G38" s="19">
-        <v>84713</v>
+        <v>84884</v>
       </c>
       <c r="H38" s="22">
-        <v>0.15264481248450651</v>
+        <v>0.15260826539748362</v>
       </c>
       <c r="I38" s="19">
-        <v>92597</v>
+        <v>92666</v>
       </c>
       <c r="J38" s="20">
-        <v>6820</v>
+        <v>6826</v>
       </c>
       <c r="K38" s="21">
-        <v>7.3652494141278876E-2</v>
+        <v>7.3662400448924095E-2</v>
       </c>
       <c r="L38" s="20">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="M38" s="23">
-        <v>1.4681451450000001E-2</v>
+        <v>1.469583048E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2214,37 +2214,37 @@
         <v>46</v>
       </c>
       <c r="C39" s="7">
-        <v>127868</v>
+        <v>127869</v>
       </c>
       <c r="D39" s="5">
         <v>42</v>
       </c>
       <c r="E39" s="6">
-        <v>0.48458733841564466</v>
+        <v>0.4845717983522207</v>
       </c>
       <c r="F39" s="6">
-        <v>0.51541266158435528</v>
+        <v>0.51542820164777925</v>
       </c>
       <c r="G39" s="7">
-        <v>85460</v>
+        <v>85572</v>
       </c>
       <c r="H39" s="8">
-        <v>0.14871284811607768</v>
+        <v>0.14857663721778153</v>
       </c>
       <c r="I39" s="7">
-        <v>94318</v>
+        <v>94413</v>
       </c>
       <c r="J39" s="5">
-        <v>7462</v>
+        <v>7467</v>
       </c>
       <c r="K39" s="6">
-        <v>7.9115333234377319E-2</v>
+        <v>7.9088684820946262E-2</v>
       </c>
       <c r="L39" s="5">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="M39" s="10">
-        <v>1.915256358E-2</v>
+        <v>1.9175875299999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2255,37 +2255,37 @@
         <v>47</v>
       </c>
       <c r="C40" s="19">
-        <v>128476</v>
+        <v>128469</v>
       </c>
       <c r="D40" s="20">
         <v>43</v>
       </c>
       <c r="E40" s="21">
-        <v>0.47446840195317702</v>
+        <v>0.47446308198777237</v>
       </c>
       <c r="F40" s="21">
-        <v>0.52553159804682292</v>
+        <v>0.52553691801222757</v>
       </c>
       <c r="G40" s="19">
-        <v>86020</v>
+        <v>86334</v>
       </c>
       <c r="H40" s="22">
-        <v>0.1485119739595443</v>
+        <v>0.14809924247689207</v>
       </c>
       <c r="I40" s="19">
-        <v>93881</v>
+        <v>93919</v>
       </c>
       <c r="J40" s="20">
         <v>8003</v>
       </c>
       <c r="K40" s="21">
-        <v>8.5246215954239937E-2</v>
+        <v>8.5211724997071941E-2</v>
       </c>
       <c r="L40" s="20">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="M40" s="23">
-        <v>2.4315825520000001E-2</v>
+        <v>2.4348286350000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2296,37 +2296,37 @@
         <v>48</v>
       </c>
       <c r="C41" s="7">
-        <v>123287</v>
+        <v>123291</v>
       </c>
       <c r="D41" s="5">
         <v>44</v>
       </c>
       <c r="E41" s="6">
-        <v>0.46551667836792004</v>
+        <v>0.4655227304266904</v>
       </c>
       <c r="F41" s="6">
-        <v>0.5344833216320799</v>
+        <v>0.53447726957330965</v>
       </c>
       <c r="G41" s="7">
-        <v>82179</v>
+        <v>82267</v>
       </c>
       <c r="H41" s="8">
-        <v>0.15480840604047263</v>
+        <v>0.1547035871005385</v>
       </c>
       <c r="I41" s="7">
-        <v>89610</v>
+        <v>89665</v>
       </c>
       <c r="J41" s="5">
-        <v>8234</v>
+        <v>8246</v>
       </c>
       <c r="K41" s="6">
-        <v>9.188706617565004E-2</v>
+        <v>9.1964534656778008E-2</v>
       </c>
       <c r="L41" s="5">
-        <v>3485</v>
+        <v>3490</v>
       </c>
       <c r="M41" s="10">
-        <v>2.826737612E-2</v>
+        <v>2.830701348E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2337,37 +2337,37 @@
         <v>49</v>
       </c>
       <c r="C42" s="19">
-        <v>128502</v>
+        <v>128510</v>
       </c>
       <c r="D42" s="20">
         <v>45</v>
       </c>
       <c r="E42" s="21">
-        <v>0.45912615346018454</v>
+        <v>0.45909800017246649</v>
       </c>
       <c r="F42" s="21">
-        <v>0.54087384653981541</v>
+        <v>0.54090199982753351</v>
       </c>
       <c r="G42" s="19">
-        <v>87039</v>
+        <v>87102</v>
       </c>
       <c r="H42" s="22">
-        <v>0.14176403681108468</v>
+        <v>0.14174186585841886</v>
       </c>
       <c r="I42" s="19">
-        <v>93652</v>
+        <v>93712</v>
       </c>
       <c r="J42" s="20">
-        <v>9071</v>
+        <v>9077</v>
       </c>
       <c r="K42" s="21">
-        <v>9.6858582838593943E-2</v>
+        <v>9.6860594160833188E-2</v>
       </c>
       <c r="L42" s="20">
-        <v>4346</v>
+        <v>4352</v>
       </c>
       <c r="M42" s="23">
-        <v>3.382048528E-2</v>
+        <v>3.386506886E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2378,37 +2378,37 @@
         <v>50</v>
       </c>
       <c r="C43" s="7">
-        <v>156533</v>
+        <v>156531</v>
       </c>
       <c r="D43" s="5">
         <v>46</v>
       </c>
       <c r="E43" s="6">
-        <v>0.45386421381018238</v>
+        <v>0.45381859349169901</v>
       </c>
       <c r="F43" s="6">
-        <v>0.54613578618981762</v>
+        <v>0.54618140650830105</v>
       </c>
       <c r="G43" s="7">
-        <v>106251</v>
+        <v>106534</v>
       </c>
       <c r="H43" s="8">
-        <v>0.14459158031453823</v>
+        <v>0.14520247057277488</v>
       </c>
       <c r="I43" s="7">
-        <v>113575</v>
+        <v>113744</v>
       </c>
       <c r="J43" s="5">
-        <v>11079</v>
+        <v>11099</v>
       </c>
       <c r="K43" s="6">
-        <v>9.7547875852960597E-2</v>
+        <v>9.757877338584893E-2</v>
       </c>
       <c r="L43" s="5">
-        <v>5570</v>
+        <v>5575</v>
       </c>
       <c r="M43" s="10">
-        <v>3.5583551069999997E-2</v>
+        <v>3.5615948270000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2419,37 +2419,37 @@
         <v>51</v>
       </c>
       <c r="C44" s="19">
-        <v>174930</v>
+        <v>174934</v>
       </c>
       <c r="D44" s="20">
         <v>46</v>
       </c>
       <c r="E44" s="21">
-        <v>0.4518118069708798</v>
+        <v>0.4518307426597582</v>
       </c>
       <c r="F44" s="21">
-        <v>0.54818819302912014</v>
+        <v>0.5481692573402418</v>
       </c>
       <c r="G44" s="19">
-        <v>117184</v>
+        <v>117292</v>
       </c>
       <c r="H44" s="22">
-        <v>0.14391043145821955</v>
+        <v>0.14393138491968763</v>
       </c>
       <c r="I44" s="19">
-        <v>125367</v>
+        <v>125468</v>
       </c>
       <c r="J44" s="20">
-        <v>12313</v>
+        <v>12330</v>
       </c>
       <c r="K44" s="21">
-        <v>9.8215638884235887E-2</v>
+        <v>9.8272069372270218E-2</v>
       </c>
       <c r="L44" s="20">
-        <v>6233</v>
+        <v>6242</v>
       </c>
       <c r="M44" s="23">
-        <v>3.5631395410000002E-2</v>
+        <v>3.5682028650000003E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2460,37 +2460,37 @@
         <v>52</v>
       </c>
       <c r="C45" s="7">
-        <v>139245</v>
+        <v>139232</v>
       </c>
       <c r="D45" s="5">
         <v>48</v>
       </c>
       <c r="E45" s="6">
-        <v>0.44491556082948641</v>
+        <v>0.44490191680113461</v>
       </c>
       <c r="F45" s="6">
-        <v>0.55508443917051353</v>
+        <v>0.55509808319886544</v>
       </c>
       <c r="G45" s="7">
-        <v>90749</v>
+        <v>90899</v>
       </c>
       <c r="H45" s="8">
-        <v>0.15729098943239045</v>
+        <v>0.15731746223830845</v>
       </c>
       <c r="I45" s="7">
-        <v>99133</v>
+        <v>99297</v>
       </c>
       <c r="J45" s="5">
-        <v>10884</v>
+        <v>10905</v>
       </c>
       <c r="K45" s="6">
-        <v>0.10979189573603139</v>
+        <v>0.10982204900450164</v>
       </c>
       <c r="L45" s="5">
-        <v>5534</v>
+        <v>5542</v>
       </c>
       <c r="M45" s="10">
-        <v>3.9742899200000001E-2</v>
+        <v>3.980406803E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2501,37 +2501,37 @@
         <v>53</v>
       </c>
       <c r="C46" s="19">
-        <v>123184</v>
+        <v>123201</v>
       </c>
       <c r="D46" s="20">
         <v>49</v>
       </c>
       <c r="E46" s="21">
-        <v>0.44120946150634122</v>
+        <v>0.44120897562892436</v>
       </c>
       <c r="F46" s="21">
-        <v>0.55879053849365878</v>
+        <v>0.55879102437107564</v>
       </c>
       <c r="G46" s="19">
-        <v>83366</v>
+        <v>83749</v>
       </c>
       <c r="H46" s="22">
-        <v>0.13420339227023007</v>
+        <v>0.13421055773800283</v>
       </c>
       <c r="I46" s="19">
-        <v>89375</v>
+        <v>89737</v>
       </c>
       <c r="J46" s="20">
-        <v>10700</v>
+        <v>10731</v>
       </c>
       <c r="K46" s="21">
-        <v>0.11972027972027972</v>
+        <v>0.11958278079276106</v>
       </c>
       <c r="L46" s="20">
-        <v>5496</v>
+        <v>5504</v>
       </c>
       <c r="M46" s="23">
-        <v>4.4616183910000003E-2</v>
+        <v>4.4674962050000003E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2542,37 +2542,37 @@
         <v>1</v>
       </c>
       <c r="C47" s="27">
-        <v>145482</v>
+        <v>145488</v>
       </c>
       <c r="D47" s="28">
         <v>48</v>
       </c>
       <c r="E47" s="29">
-        <v>0.45082410721718141</v>
+        <v>0.45085486388070056</v>
       </c>
       <c r="F47" s="29">
-        <v>0.54917589278281864</v>
+        <v>0.54914513611929949</v>
       </c>
       <c r="G47" s="27">
-        <v>100238</v>
+        <v>100576</v>
       </c>
       <c r="H47" s="30">
-        <v>0.13192601608172549</v>
+        <v>0.1320295100222717</v>
       </c>
       <c r="I47" s="27">
-        <v>105494</v>
+        <v>105973</v>
       </c>
       <c r="J47" s="28">
-        <v>10737</v>
+        <v>10748</v>
       </c>
       <c r="K47" s="29">
-        <v>0.10177830018768839</v>
+        <v>0.10142206033612335</v>
       </c>
       <c r="L47" s="28">
-        <v>5474</v>
+        <v>5482</v>
       </c>
       <c r="M47" s="31">
-        <v>3.7626647970000003E-2</v>
+        <v>3.7680083580000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,37 +2583,37 @@
         <v>2</v>
       </c>
       <c r="C48" s="19">
-        <v>118986</v>
+        <v>119010</v>
       </c>
       <c r="D48" s="20">
         <v>48</v>
       </c>
       <c r="E48" s="21">
-        <v>0.45434710631542308</v>
+        <v>0.45432710669031717</v>
       </c>
       <c r="F48" s="21">
-        <v>0.54565289368457692</v>
+        <v>0.54567289330968283</v>
       </c>
       <c r="G48" s="19">
-        <v>80139</v>
+        <v>80434</v>
       </c>
       <c r="H48" s="22">
-        <v>0.15757621133280925</v>
+        <v>0.15749558644354378</v>
       </c>
       <c r="I48" s="19">
-        <v>86517</v>
+        <v>86920</v>
       </c>
       <c r="J48" s="20">
-        <v>9499</v>
+        <v>9509</v>
       </c>
       <c r="K48" s="21">
-        <v>0.10979345099806974</v>
+        <v>0.10939944776806258</v>
       </c>
       <c r="L48" s="20">
-        <v>4856</v>
+        <v>4874</v>
       </c>
       <c r="M48" s="23">
-        <v>4.0811524039999998E-2</v>
+        <v>4.0954541630000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2624,37 +2624,37 @@
         <v>3</v>
       </c>
       <c r="C49" s="7">
-        <v>95584</v>
+        <v>95585</v>
       </c>
       <c r="D49" s="5">
         <v>48</v>
       </c>
       <c r="E49" s="6">
-        <v>0.4581236084290945</v>
+        <v>0.45818956875903477</v>
       </c>
       <c r="F49" s="6">
-        <v>0.5418763915709055</v>
+        <v>0.54181043124096528</v>
       </c>
       <c r="G49" s="7">
-        <v>66118</v>
+        <v>66266</v>
       </c>
       <c r="H49" s="8">
-        <v>0.15693154662875466</v>
+        <v>0.15683759393957686</v>
       </c>
       <c r="I49" s="7">
-        <v>72063</v>
+        <v>72208</v>
       </c>
       <c r="J49" s="5">
-        <v>8471</v>
+        <v>8485</v>
       </c>
       <c r="K49" s="6">
-        <v>0.11754992159638095</v>
+        <v>0.11750775537336583</v>
       </c>
       <c r="L49" s="5">
-        <v>3864</v>
+        <v>3877</v>
       </c>
       <c r="M49" s="10">
-        <v>4.0425175760000001E-2</v>
+        <v>4.0560757439999998E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2665,37 +2665,37 @@
         <v>4</v>
       </c>
       <c r="C50" s="19">
-        <v>78253</v>
+        <v>78245</v>
       </c>
       <c r="D50" s="20">
         <v>48</v>
       </c>
       <c r="E50" s="21">
-        <v>0.46321690939554067</v>
+        <v>0.46311977213264766</v>
       </c>
       <c r="F50" s="21">
-        <v>0.53678309060445939</v>
+        <v>0.53688022786735234</v>
       </c>
       <c r="G50" s="19">
-        <v>54595</v>
+        <v>54758</v>
       </c>
       <c r="H50" s="22">
-        <v>0.15876911805110358</v>
+        <v>0.15917308886372766</v>
       </c>
       <c r="I50" s="19">
-        <v>60457</v>
+        <v>60745</v>
       </c>
       <c r="J50" s="20">
-        <v>7135</v>
+        <v>7152</v>
       </c>
       <c r="K50" s="21">
-        <v>0.11801776469226062</v>
+        <v>0.11773808543913079</v>
       </c>
       <c r="L50" s="20">
-        <v>2905</v>
+        <v>2924</v>
       </c>
       <c r="M50" s="23">
-        <v>3.7123177379999997E-2</v>
+        <v>3.736979998E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2706,37 +2706,37 @@
         <v>5</v>
       </c>
       <c r="C51" s="7">
-        <v>64648</v>
+        <v>64672</v>
       </c>
       <c r="D51" s="5">
         <v>46</v>
       </c>
       <c r="E51" s="6">
-        <v>0.47373598575934545</v>
+        <v>0.47374664419054752</v>
       </c>
       <c r="F51" s="6">
-        <v>0.52626401424065461</v>
+        <v>0.52625335580945243</v>
       </c>
       <c r="G51" s="7">
-        <v>45783</v>
+        <v>46123</v>
       </c>
       <c r="H51" s="8">
-        <v>0.15955704082301292</v>
+        <v>0.15985516987186435</v>
       </c>
       <c r="I51" s="7">
-        <v>50559</v>
+        <v>50868</v>
       </c>
       <c r="J51" s="5">
-        <v>6088</v>
+        <v>6114</v>
       </c>
       <c r="K51" s="6">
-        <v>0.12041377400660615</v>
+        <v>0.12019344184949281</v>
       </c>
       <c r="L51" s="5">
-        <v>2071</v>
+        <v>2081</v>
       </c>
       <c r="M51" s="10">
-        <v>3.2035020409999997E-2</v>
+        <v>3.2177758530000003E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2747,37 +2747,37 @@
         <v>6</v>
       </c>
       <c r="C52" s="19">
-        <v>50865</v>
+        <v>50869</v>
       </c>
       <c r="D52" s="20">
         <v>45</v>
       </c>
       <c r="E52" s="21">
-        <v>0.48387416496521102</v>
+        <v>0.48379744326627688</v>
       </c>
       <c r="F52" s="21">
-        <v>0.51612583503478904</v>
+        <v>0.51620255673372317</v>
       </c>
       <c r="G52" s="19">
-        <v>36694</v>
+        <v>36861</v>
       </c>
       <c r="H52" s="22">
-        <v>0.16405951926745516</v>
+        <v>0.1638859499199696</v>
       </c>
       <c r="I52" s="19">
-        <v>40016</v>
+        <v>40213</v>
       </c>
       <c r="J52" s="20">
-        <v>4858</v>
+        <v>4883</v>
       </c>
       <c r="K52" s="21">
-        <v>0.1214014394242303</v>
+        <v>0.12142839380299902</v>
       </c>
       <c r="L52" s="20">
-        <v>1531</v>
+        <v>1544</v>
       </c>
       <c r="M52" s="23">
-        <v>3.0099282410000001E-2</v>
+        <v>3.0352474000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2788,37 +2788,37 @@
         <v>7</v>
       </c>
       <c r="C53" s="7">
-        <v>52506</v>
+        <v>52517</v>
       </c>
       <c r="D53" s="5">
         <v>44</v>
       </c>
       <c r="E53" s="6">
-        <v>0.49183818310858762</v>
+        <v>0.49180296435487891</v>
       </c>
       <c r="F53" s="6">
-        <v>0.50816181689141238</v>
+        <v>0.50819703564512109</v>
       </c>
       <c r="G53" s="7">
-        <v>38264</v>
+        <v>38440</v>
       </c>
       <c r="H53" s="8">
-        <v>0.16294689525402467</v>
+        <v>0.16298126951092612</v>
       </c>
       <c r="I53" s="7">
-        <v>41751</v>
+        <v>41997</v>
       </c>
       <c r="J53" s="5">
-        <v>4804</v>
+        <v>4825</v>
       </c>
       <c r="K53" s="6">
-        <v>0.11506311226078417</v>
+        <v>0.11488915874943448</v>
       </c>
       <c r="L53" s="5">
-        <v>1288</v>
+        <v>1316</v>
       </c>
       <c r="M53" s="10">
-        <v>2.4530529839999999E-2</v>
+        <v>2.5058552460000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2829,37 +2829,37 @@
         <v>8</v>
       </c>
       <c r="C54" s="19">
-        <v>56480</v>
+        <v>56498</v>
       </c>
       <c r="D54" s="20">
         <v>42</v>
       </c>
       <c r="E54" s="21">
-        <v>0.49720431639303392</v>
+        <v>0.49716096189103076</v>
       </c>
       <c r="F54" s="21">
-        <v>0.50279568360696603</v>
+        <v>0.50283903810896924</v>
       </c>
       <c r="G54" s="19">
-        <v>41042</v>
+        <v>41261</v>
       </c>
       <c r="H54" s="22">
-        <v>0.15791140782612934</v>
+        <v>0.15767916434405371</v>
       </c>
       <c r="I54" s="19">
-        <v>44398</v>
+        <v>44722</v>
       </c>
       <c r="J54" s="20">
-        <v>4430</v>
+        <v>4466</v>
       </c>
       <c r="K54" s="21">
-        <v>9.9779269336456602E-2</v>
+        <v>9.9861365770761587E-2</v>
       </c>
       <c r="L54" s="20">
-        <v>998</v>
+        <v>1037</v>
       </c>
       <c r="M54" s="23">
-        <v>1.766997167E-2</v>
+        <v>1.8354632020000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2870,37 +2870,37 @@
         <v>9</v>
       </c>
       <c r="C55" s="7">
-        <v>58492</v>
+        <v>58514</v>
       </c>
       <c r="D55" s="5">
         <v>40</v>
       </c>
       <c r="E55" s="6">
-        <v>0.50715612743411542</v>
+        <v>0.50708439369970426</v>
       </c>
       <c r="F55" s="6">
-        <v>0.49284387256588452</v>
+        <v>0.49291560630029574</v>
       </c>
       <c r="G55" s="7">
-        <v>42256</v>
+        <v>42599</v>
       </c>
       <c r="H55" s="8">
-        <v>0.15453426732298373</v>
+        <v>0.15436982088781426</v>
       </c>
       <c r="I55" s="7">
-        <v>45447</v>
+        <v>45855</v>
       </c>
       <c r="J55" s="5">
-        <v>3922</v>
+        <v>3972</v>
       </c>
       <c r="K55" s="6">
-        <v>8.6298325522036659E-2</v>
+        <v>8.6620870134118413E-2</v>
       </c>
       <c r="L55" s="5">
-        <v>732</v>
+        <v>799</v>
       </c>
       <c r="M55" s="10">
-        <v>1.25145319E-2</v>
+        <v>1.365485183E-2</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2911,78 +2911,78 @@
         <v>10</v>
       </c>
       <c r="C56" s="19">
-        <v>71416</v>
+        <v>71459</v>
       </c>
       <c r="D56" s="20">
         <v>39</v>
       </c>
       <c r="E56" s="21">
-        <v>0.50273008169081645</v>
+        <v>0.50277707293693086</v>
       </c>
       <c r="F56" s="21">
-        <v>0.49726991830918349</v>
+        <v>0.49722292706306914</v>
       </c>
       <c r="G56" s="19">
-        <v>49323</v>
+        <v>50410</v>
       </c>
       <c r="H56" s="22">
-        <v>0.15443099568152788</v>
+        <v>0.15423527077960722</v>
       </c>
       <c r="I56" s="19">
-        <v>52938</v>
-      </c>
-      <c r="J56" s="20">
-        <v>4140</v>
+        <v>53905</v>
+      </c>
+      <c r="J56" s="32">
+        <v>4312</v>
       </c>
       <c r="K56" s="21">
-        <v>7.8204692281536897E-2</v>
-      </c>
-      <c r="L56" s="20">
-        <v>607</v>
+        <v>7.9992579538076244E-2</v>
+      </c>
+      <c r="L56" s="32">
+        <v>740</v>
       </c>
       <c r="M56" s="23">
-        <v>8.49949591E-3</v>
+        <v>1.0355588509999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
+      <c r="A57" s="25">
         <v>2021</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="25">
         <v>11</v>
       </c>
-      <c r="C57" s="7">
-        <v>92574</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="C57" s="27">
+        <v>92782</v>
+      </c>
+      <c r="D57" s="28">
         <v>39</v>
       </c>
-      <c r="E57" s="6">
-        <v>0.50411084043848964</v>
-      </c>
-      <c r="F57" s="6">
-        <v>0.49588915956151036</v>
-      </c>
-      <c r="G57" s="7">
-        <v>61469</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0.15323171029299321</v>
-      </c>
-      <c r="I57" s="7">
-        <v>66438</v>
-      </c>
-      <c r="J57" s="5">
-        <v>4262</v>
-      </c>
-      <c r="K57" s="6">
-        <v>6.4150034618742288E-2</v>
-      </c>
-      <c r="L57" s="5">
-        <v>372</v>
-      </c>
-      <c r="M57" s="10">
-        <v>4.0184068900000003E-3</v>
+      <c r="E57" s="29">
+        <v>0.50402906566888994</v>
+      </c>
+      <c r="F57" s="29">
+        <v>0.49597093433111</v>
+      </c>
+      <c r="G57" s="27">
+        <v>63393</v>
+      </c>
+      <c r="H57" s="30">
+        <v>0.15194106604830188</v>
+      </c>
+      <c r="I57" s="27">
+        <v>68072</v>
+      </c>
+      <c r="J57" s="28">
+        <v>4692</v>
+      </c>
+      <c r="K57" s="29">
+        <v>6.8927018451051827E-2</v>
+      </c>
+      <c r="L57" s="28">
+        <v>593</v>
+      </c>
+      <c r="M57" s="31">
+        <v>6.3913258999999997E-3</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2993,50 +2993,92 @@
         <v>12</v>
       </c>
       <c r="C58" s="19">
-        <v>114770</v>
+        <v>116633</v>
       </c>
       <c r="D58" s="20">
         <v>38</v>
       </c>
       <c r="E58" s="21">
-        <v>0.50760349197409182</v>
+        <v>0.50785213610945457</v>
       </c>
       <c r="F58" s="21">
-        <v>0.49239650802590818</v>
+        <v>0.49214786389054543</v>
       </c>
       <c r="G58" s="19">
-        <v>62803</v>
+        <v>73049</v>
       </c>
       <c r="H58" s="22">
-        <v>0.16226931834466507</v>
+        <v>0.15496447589973852</v>
       </c>
       <c r="I58" s="19">
-        <v>74207</v>
+        <v>82254</v>
       </c>
       <c r="J58" s="20">
-        <v>3627</v>
+        <v>4805</v>
       </c>
       <c r="K58" s="21">
-        <v>4.8876790599269609E-2</v>
+        <v>5.8416611958081066E-2</v>
       </c>
       <c r="L58" s="20">
-        <v>142</v>
+        <v>397</v>
       </c>
       <c r="M58" s="23">
-        <v>1.23725712E-3</v>
+        <v>3.4038393899999998E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="25">
+        <v>2023</v>
+      </c>
+      <c r="B59" s="25">
+        <v>13</v>
+      </c>
+      <c r="C59" s="27">
+        <v>108738</v>
+      </c>
+      <c r="D59" s="28">
+        <v>39</v>
+      </c>
+      <c r="E59" s="29">
+        <v>0.51304388205247276</v>
+      </c>
+      <c r="F59" s="29">
+        <v>0.4869561179475273</v>
+      </c>
+      <c r="G59" s="27">
+        <v>54108</v>
+      </c>
+      <c r="H59" s="30">
+        <v>0.15583647519775265</v>
+      </c>
+      <c r="I59" s="27">
+        <v>65352</v>
+      </c>
+      <c r="J59" s="28">
+        <v>3246</v>
+      </c>
+      <c r="K59" s="29">
+        <v>4.9669482188762396E-2</v>
+      </c>
+      <c r="L59" s="28">
+        <v>129</v>
+      </c>
+      <c r="M59" s="31">
+        <v>1.1863378E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2B208C-555F-44C6-980F-40400D13B2EF}">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E6585B-9715-4742-AD54-D5D5F0340D3B}">
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3046,33 +3088,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -3095,10 +3137,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -3121,10 +3163,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3147,10 +3189,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -3173,10 +3215,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -3199,10 +3241,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -3220,15 +3262,15 @@
         <v>780</v>
       </c>
       <c r="H7">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -3240,7 +3282,7 @@
         <v>428</v>
       </c>
       <c r="F8">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="G8">
         <v>1411</v>
@@ -3251,10 +3293,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>64</v>
@@ -3269,18 +3311,18 @@
         <v>1490</v>
       </c>
       <c r="G9">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="H9">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>65</v>
@@ -3289,27 +3331,27 @@
         <v>58</v>
       </c>
       <c r="E10">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F10">
         <v>1680</v>
       </c>
       <c r="G10">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="H10">
-        <v>2040</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>68</v>
@@ -3318,27 +3360,27 @@
         <v>569</v>
       </c>
       <c r="F11">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="G11">
         <v>2558</v>
       </c>
       <c r="H11">
-        <v>2489</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>54</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>597</v>
@@ -3347,18 +3389,18 @@
         <v>1654</v>
       </c>
       <c r="G12">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="H12">
-        <v>2802</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>63</v>
@@ -3367,24 +3409,24 @@
         <v>68</v>
       </c>
       <c r="E13">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F13">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="G13">
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="H13">
-        <v>3032</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>57</v>
@@ -3393,24 +3435,24 @@
         <v>58</v>
       </c>
       <c r="E14">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F14">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="G14">
         <v>3140</v>
       </c>
       <c r="H14">
-        <v>3572</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>70</v>
@@ -3419,24 +3461,24 @@
         <v>66</v>
       </c>
       <c r="E15">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F15">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="G15">
-        <v>3879</v>
+        <v>3889</v>
       </c>
       <c r="H15">
-        <v>4463</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>78</v>
@@ -3445,24 +3487,24 @@
         <v>83</v>
       </c>
       <c r="E16">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F16">
-        <v>2142</v>
+        <v>2145</v>
       </c>
       <c r="G16">
-        <v>4301</v>
+        <v>4305</v>
       </c>
       <c r="H16">
-        <v>5009</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>53</v>
@@ -3474,21 +3516,21 @@
         <v>594</v>
       </c>
       <c r="F17">
-        <v>1821</v>
+        <v>1828</v>
       </c>
       <c r="G17">
-        <v>3831</v>
+        <v>3839</v>
       </c>
       <c r="H17">
-        <v>4520</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>74</v>
@@ -3497,24 +3539,24 @@
         <v>51</v>
       </c>
       <c r="E18">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F18">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="G18">
-        <v>3752</v>
+        <v>3766</v>
       </c>
       <c r="H18">
-        <v>4361</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>61</v>
@@ -3526,47 +3568,47 @@
         <v>560</v>
       </c>
       <c r="F19">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="G19">
-        <v>3823</v>
+        <v>3828</v>
       </c>
       <c r="H19">
-        <v>4532</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C20">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>46</v>
       </c>
       <c r="E20">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F20">
         <v>1540</v>
       </c>
       <c r="G20">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="H20">
-        <v>4085</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>39</v>
@@ -3578,24 +3620,24 @@
         <v>385</v>
       </c>
       <c r="F21">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="G21">
-        <v>3044</v>
+        <v>3048</v>
       </c>
       <c r="H21">
-        <v>3559</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -3604,21 +3646,21 @@
         <v>385</v>
       </c>
       <c r="F22">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="G22">
-        <v>2651</v>
+        <v>2662</v>
       </c>
       <c r="H22">
-        <v>2864</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>42</v>
@@ -3630,21 +3672,21 @@
         <v>338</v>
       </c>
       <c r="F23">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G23">
-        <v>2224</v>
+        <v>2230</v>
       </c>
       <c r="H23">
-        <v>2373</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>36</v>
@@ -3653,24 +3695,24 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F24">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="G24">
-        <v>1823</v>
+        <v>1829</v>
       </c>
       <c r="H24">
-        <v>1785</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>35</v>
@@ -3679,24 +3721,24 @@
         <v>22</v>
       </c>
       <c r="E25">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F25">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="G25">
-        <v>1882</v>
+        <v>1889</v>
       </c>
       <c r="H25">
-        <v>1584</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>43</v>
@@ -3705,24 +3747,24 @@
         <v>31</v>
       </c>
       <c r="E26">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F26">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="G26">
-        <v>1660</v>
+        <v>1674</v>
       </c>
       <c r="H26">
-        <v>1402</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>49</v>
@@ -3731,94 +3773,120 @@
         <v>28</v>
       </c>
       <c r="E27">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F27">
-        <v>921</v>
+        <v>937</v>
       </c>
       <c r="G27">
-        <v>1474</v>
+        <v>1495</v>
       </c>
       <c r="H27">
-        <v>1145</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>47</v>
-      </c>
       <c r="D28">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F28">
-        <v>1128</v>
+        <v>1189</v>
       </c>
       <c r="G28">
-        <v>1468</v>
+        <v>1532</v>
       </c>
       <c r="H28">
-        <v>1107</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C29">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E29">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="F29">
-        <v>1173</v>
+        <v>1308</v>
       </c>
       <c r="G29">
-        <v>1536</v>
+        <v>1729</v>
       </c>
       <c r="H29">
-        <v>1045</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
-        <v>2021</v>
+      <c r="A30" t="s">
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C30">
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>72</v>
+      </c>
+      <c r="E30">
+        <v>471</v>
+      </c>
+      <c r="F30">
+        <v>1337</v>
+      </c>
+      <c r="G30">
+        <v>1707</v>
+      </c>
+      <c r="H30">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
         <v>63</v>
       </c>
-      <c r="D30">
-        <v>60</v>
-      </c>
-      <c r="E30">
-        <v>369</v>
-      </c>
-      <c r="F30">
-        <v>952</v>
-      </c>
-      <c r="G30">
-        <v>1253</v>
-      </c>
-      <c r="H30">
-        <v>925</v>
+      <c r="D31">
+        <v>73</v>
+      </c>
+      <c r="E31">
+        <v>331</v>
+      </c>
+      <c r="F31">
+        <v>839</v>
+      </c>
+      <c r="G31">
+        <v>1160</v>
+      </c>
+      <c r="H31">
+        <v>778</v>
       </c>
     </row>
   </sheetData>

--- a/Klinische_Aspekte/raw_data/Klinische_Aspekte_2021-04-06.xlsx
+++ b/Klinische_Aspekte/raw_data/Klinische_Aspekte_2021-04-06.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1151A2C-946E-4FDA-8B34-C4568813227A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92CE1CA-87CB-4F5D-AE05-A5DF90924F7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6225" xr2:uid="{DB775562-523C-43F7-B3D3-B72E2874F045}"/>
   </bookViews>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED98BD9-4AB5-4844-ABD1-68F2C3D62B46}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B58" s="18">
         <v>12</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B59" s="25">
         <v>13</v>
